--- a/заказы/статистика филиалы/2023/11,23/16,11,23 ЗПФ/дв 16,11,23 мррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/16,11,23 ЗПФ/дв 16,11,23 мррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\16,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\16,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CF08F4-B8DD-4E16-BF94-F6E168431BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16135B32-4484-46AB-8E83-453FE1037243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,10 +247,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2711,7 +2715,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3069,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="Y7" s="20">
-        <f t="shared" ref="Y7:Y37" si="6">N7/X7</f>
+        <f t="shared" ref="Y7:Y35" si="6">N7/X7</f>
         <v>0</v>
       </c>
       <c r="Z7" s="2">
